--- a/企画書.xlsx
+++ b/企画書.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarak\Desktop\制作\kikaku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarak\Desktop\制作\17Fukada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571B7DD-F8D8-444F-B99E-FD3D4A3524D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25509091-E00E-4189-84EC-B61AC435FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2760" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="企画書" sheetId="1" r:id="rId1"/>
+    <sheet name="仕様書" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -39,13 +39,650 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲームのポイント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dシューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.複数の敵が迫ってくる。これを攻撃して倒す。</t>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セマ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵はプレイヤーを狙ってくる。ある程度近づかれると射撃される。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程圏内にプレイヤーがいると敵の速度は落ちる。</t>
+    <rPh sb="0" eb="4">
+      <t>シャテイケンナイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは自由に移動できる。</t>
+    <rPh sb="6" eb="8">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは射撃することが出来るが弾の数には限りがある。</t>
+    <rPh sb="6" eb="8">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.固定砲台(味方)を設置して敵を迎え撃つ。</t>
+    <rPh sb="2" eb="6">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ムカ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動を一切しない固定砲台をプレイヤーは設置可能。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力も低いし移動もしないけど弾は無限。敵も基本は固定砲台を破壊できない。</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置するには時間がかかる。その間プレイヤーは無防備になってしまう。</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ムボウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.プレイヤーがやられるとゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが敵の攻撃に当たりすぎるとゲームオーバー</t>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間過ぎてもゲームオーバー</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームのポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.弾が無限ではないので適当に乱射すると何もできなくなる。</t>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ランシャ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>置ける数には制限がある</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.固定砲台は弾が無限なのでこれを利用するのが大事</t>
+    <rPh sb="2" eb="6">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ただ固定砲台の性能は高くない。それだけに任せていると時間切れを起こす。</t>
+    <rPh sb="4" eb="8">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ジカンギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.スコアは残り時間とプレイヤーの残り体力などで決まる。</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動(A:左.D:右.W:前.S後)</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の発射(スペース)</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の弾でダメージを受ける</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力0で撃破</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定砲台の設置(Fキー)</t>
+    <rPh sb="0" eb="4">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの探知</t>
+    <rPh sb="6" eb="8">
+      <t>タンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに向かって移動</t>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに射撃</t>
+    <rPh sb="6" eb="8">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの弾に当たるとダメージ</t>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力0で消滅</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定砲台</t>
+    <rPh sb="0" eb="4">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設置コマンドでエリアに出現</t>
+    <rPh sb="0" eb="2">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の探知</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵への射撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー弾</t>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たると消滅</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面や壁に当たると</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定砲台に当たると消滅</t>
+    <rPh sb="0" eb="4">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定砲台弾</t>
+    <rPh sb="0" eb="4">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵弾</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに当たると消滅</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の設置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの設置</t>
+    <rPh sb="6" eb="8">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの体力を画面に表示</t>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の残数を画面に表示</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定砲台設置できる数の表示</t>
+    <rPh sb="0" eb="4">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制限時間の表示</t>
+    <rPh sb="0" eb="4">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての敵を撃破したらクリアに</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが撃破されるとゲームオーバーに</t>
+    <rPh sb="6" eb="8">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種素材探し</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ソザイサガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -70,15 +707,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -86,12 +729,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -372,27 +1129,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A7"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -404,16 +1250,739 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3B6C2E-C454-41FA-9B87-A8884E7AF891}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="39.25" customWidth="1"/>
+    <col min="4" max="13" width="4.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="9">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
         <v>3</v>
       </c>
+      <c r="G2" s="10">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10">
+        <v>6</v>
+      </c>
+      <c r="J2" s="10">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10">
+        <v>9</v>
+      </c>
+      <c r="M2" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A29" s="6"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:13" ht="19.5" thickBot="1">
+      <c r="A42" s="6"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/企画書.xlsx
+++ b/企画書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarak\Desktop\制作\17Fukada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25509091-E00E-4189-84EC-B61AC435FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BEB109-A112-4454-A27C-934FECBB0A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6570" yWindow="1425" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6570" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>ジャンル</t>
     <phoneticPr fontId="1"/>
@@ -69,70 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵はプレイヤーを狙ってくる。ある程度近づかれると射撃される。</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ネラ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>テイド</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シャゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>射程圏内にプレイヤーがいると敵の速度は落ちる。</t>
-    <rPh sb="0" eb="4">
-      <t>シャテイケンナイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーは自由に移動できる。</t>
-    <rPh sb="6" eb="8">
-      <t>ジユウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーは射撃することが出来るが弾の数には限りがある。</t>
-    <rPh sb="6" eb="8">
-      <t>シャゲキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>カギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.固定砲台(味方)を設置して敵を迎え撃つ。</t>
     <rPh sb="2" eb="6">
       <t>コテイホウダイ</t>
@@ -155,192 +91,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動を一切しない固定砲台をプレイヤーは設置可能。</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イッサイ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>コテイホウダイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力も低いし移動もしないけど弾は無限。敵も基本は固定砲台を破壊できない。</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ムゲン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>コテイホウダイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>設置するには時間がかかる。その間プレイヤーは無防備になってしまう。</t>
-    <rPh sb="0" eb="2">
-      <t>セッチ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ムボウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3.プレイヤーがやられるとゲームオーバー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーが敵の攻撃に当たりすぎるとゲームオーバー</t>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>制限時間過ぎてもゲームオーバー</t>
-    <rPh sb="0" eb="4">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゲームのポイント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.弾が無限ではないので適当に乱射すると何もできなくなる。</t>
-    <rPh sb="2" eb="3">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ムゲン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ランシャ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>置ける数には制限がある</t>
-    <rPh sb="0" eb="1">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.固定砲台は弾が無限なのでこれを利用するのが大事</t>
-    <rPh sb="2" eb="6">
-      <t>コテイホウダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ムゲン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ダイジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.ただ固定砲台の性能は高くない。それだけに任せていると時間切れを起こす。</t>
-    <rPh sb="4" eb="8">
-      <t>コテイホウダイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイノウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>マカ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ジカンギ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.スコアは残り時間とプレイヤーの残り体力などで決まる。</t>
-    <rPh sb="6" eb="7">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -683,6 +438,355 @@
     </rPh>
     <rPh sb="2" eb="5">
       <t>ソザイサガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.敵を制限時間内に全滅させるとクリア</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>セイゲンジカンナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ただ固定砲台の性能は高くない。上手く敵を誘導しないと弾を当ててくれず、それだけに任せていると時間切れを起こす。</t>
+    <rPh sb="4" eb="8">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイノウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ユウドウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ジカンギ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.弾が無限ではないので適当に乱射すると何もできなくなる。必要な時だけ撃つようにする。</t>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ランシャ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　移動を一切しない固定砲台をプレイヤーは設置可能。</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッサイ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　攻撃力も低いし移動もしないけど弾は無限。敵も基本は固定砲台を攻撃しない。</t>
+    <rPh sb="1" eb="4">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ただし、直接ぶつかったり、流れ弾で壊れることはある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　置ける数には制限がある</t>
+    <rPh sb="1" eb="2">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　設置するには時間がかかる。その間プレイヤーは無防備になってしまう。</t>
+    <rPh sb="1" eb="3">
+      <t>セッチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ムボウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　敵はプレイヤーを狙ってくる。ある程度近づかれると射撃される。</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　射程圏内にプレイヤーがいると敵の速度は落ちる。</t>
+    <rPh sb="1" eb="5">
+      <t>シャテイケンナイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プレイヤーは自由に移動できる。</t>
+    <rPh sb="7" eb="9">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プレイヤーは射撃することが出来るが弾の数には限りがある。</t>
+    <rPh sb="7" eb="9">
+      <t>シャゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　プレイヤーが敵の攻撃に当たりすぎるとゲームオーバー</t>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　制限時間過ぎてもゲームオーバー</t>
+    <rPh sb="1" eb="5">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　10~20体くらいの敵を全部倒すとクリア。</t>
+    <rPh sb="6" eb="7">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.スコアは残り時間とプレイヤーの残り体力などで決まる。</t>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.固定砲台は弾が無限なのでこれを利用するのが大事。</t>
+    <rPh sb="2" eb="6">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ダイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.敵の数は多い。攻撃を避けながら固定砲台の射線に敵を誘き寄せないといけない。</t>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>コテイホウダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シャセン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オビ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.適当に近づけるだけだとぶつかったり誤射で固定砲台が壊れてしまう。ほどほどの距離を保つことが必要。</t>
+    <rPh sb="39" eb="41">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1129,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B24"/>
+  <dimension ref="A2:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1158,87 +1262,112 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>13</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="B24" t="s">
-        <v>21</v>
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1252,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3B6C2E-C454-41FA-9B87-A8884E7AF891}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1433,7 @@
     </row>
     <row r="3" spans="1:13" ht="19.5" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1321,11 +1450,11 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
@@ -1342,7 +1471,7 @@
       <c r="A5" s="4"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
@@ -1359,7 +1488,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="2"/>
@@ -1376,7 +1505,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2"/>
@@ -1393,7 +1522,7 @@
       <c r="A8" s="4"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2"/>
@@ -1423,11 +1552,11 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
@@ -1444,7 +1573,7 @@
       <c r="A11" s="4"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
@@ -1461,7 +1590,7 @@
       <c r="A12" s="4"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="2"/>
@@ -1478,7 +1607,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
@@ -1495,7 +1624,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
@@ -1525,11 +1654,11 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
@@ -1546,7 +1675,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
@@ -1563,7 +1692,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="2"/>
@@ -1593,11 +1722,11 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
@@ -1614,7 +1743,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="2"/>
@@ -1631,7 +1760,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
@@ -1648,7 +1777,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
@@ -1678,11 +1807,11 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="2"/>
@@ -1699,7 +1828,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
@@ -1716,7 +1845,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
@@ -1733,7 +1862,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
@@ -1763,11 +1892,11 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
@@ -1784,7 +1913,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
@@ -1801,7 +1930,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="2"/>
@@ -1818,7 +1947,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="2"/>
@@ -1848,11 +1977,11 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="2"/>
@@ -1869,7 +1998,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
@@ -1886,7 +2015,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
@@ -1903,7 +2032,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="2"/>
@@ -1920,7 +2049,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="2"/>
@@ -1937,7 +2066,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="2"/>
@@ -1954,7 +2083,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
@@ -1971,7 +2100,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
